--- a/output_xlsx/model-5-20-07-2021.xlsx
+++ b/output_xlsx/model-5-20-07-2021.xlsx
@@ -16,12 +16,12 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
+    <t>mobil</t>
+  </si>
+  <si>
     <t>motor</t>
   </si>
   <si>
-    <t>mobil</t>
-  </si>
-  <si>
     <t>sepeda</t>
   </si>
   <si>
@@ -40,7 +40,7 @@
     <t>2021-07-20</t>
   </si>
   <si>
-    <t>16:11:00</t>
+    <t>16:43:00</t>
   </si>
 </sst>
 </file>
